--- a/Data/EC/NIT-8918567186.xlsx
+++ b/Data/EC/NIT-8918567186.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6D83FF0-BD89-4B20-A288-DD15B8763725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2925813-62D7-491F-A8BF-2033E205FF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FF1AC429-F561-48E5-9E79-D8F7DB24FFFD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C27C502C-7F28-4058-98B6-01B0E42343C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,322 +65,322 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047408135</t>
+  </si>
+  <si>
+    <t>LEONARDO FAVIO BOLIVAR ESPITIA</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1128052230</t>
+  </si>
+  <si>
+    <t>WALTER JOSE NARVAEZ PEREZ</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>8850119</t>
+  </si>
+  <si>
+    <t>RAFAEL EMIRO BALDOVINO VILLERO</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>91249998</t>
+  </si>
+  <si>
+    <t>ROSMY RENE LOPEZ BASTIDAS</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1143361829</t>
+  </si>
+  <si>
+    <t>YORELIS OROZCO CAMPO</t>
+  </si>
+  <si>
     <t>20078307</t>
   </si>
   <si>
     <t>RAUL HERIBERTO DE ARCO ACEVEDO</t>
   </si>
   <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>91249998</t>
-  </si>
-  <si>
-    <t>ROSMY RENE LOPEZ BASTIDAS</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
     <t>7937412</t>
   </si>
   <si>
-    <t>1711</t>
-  </si>
-  <si>
     <t>1192920468</t>
   </si>
   <si>
     <t>EDUARDO LUIS AREVALO PEREZ</t>
   </si>
   <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1128052230</t>
-  </si>
-  <si>
-    <t>WALTER JOSE NARVAEZ PEREZ</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
     <t>20190159</t>
   </si>
   <si>
     <t>OSCAR JAVIER BERRIO GUZMAN</t>
   </si>
   <si>
-    <t>1047408135</t>
-  </si>
-  <si>
-    <t>LEONARDO FAVIO BOLIVAR ESPITIA</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>8850119</t>
-  </si>
-  <si>
-    <t>RAFAEL EMIRO BALDOVINO VILLERO</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>1143361829</t>
-  </si>
-  <si>
-    <t>YORELIS OROZCO CAMPO</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
     <t>1017176255</t>
   </si>
   <si>
     <t>YURY BIBIANA ARIAS DAVID</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -794,7 +794,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE932502-997B-8ACA-662A-02E2FA5F78ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{905950DC-7BC8-8CF3-3AD6-A82DF158CD2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1145,7 +1145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6A1B12-2C73-4F35-82DF-8677F217338A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443EC7B5-1BD5-4CA9-A031-A566A5EF7508}">
   <dimension ref="B2:J278"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1323,10 +1323,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>75192</v>
+        <v>24742</v>
       </c>
       <c r="G16" s="18">
-        <v>1879800</v>
+        <v>1030920</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1343,13 +1343,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>120000</v>
+        <v>1776</v>
       </c>
       <c r="G17" s="18">
-        <v>3000000</v>
+        <v>1332150</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1360,19 +1360,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F18" s="18">
-        <v>120000</v>
+        <v>38000</v>
       </c>
       <c r="G18" s="18">
-        <v>3000000</v>
+        <v>1753920</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1383,19 +1383,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F19" s="18">
-        <v>120000</v>
+        <v>38000</v>
       </c>
       <c r="G19" s="18">
-        <v>3000000</v>
+        <v>1753920</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1406,19 +1406,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F20" s="18">
-        <v>120000</v>
+        <v>38000</v>
       </c>
       <c r="G20" s="18">
-        <v>3000000</v>
+        <v>1753920</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1429,19 +1429,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
-        <v>75192</v>
+        <v>38000</v>
       </c>
       <c r="G21" s="18">
-        <v>1879800</v>
+        <v>1753920</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1452,19 +1452,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F22" s="18">
-        <v>120000</v>
+        <v>38000</v>
       </c>
       <c r="G22" s="18">
-        <v>3000000</v>
+        <v>1753920</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1475,19 +1475,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F23" s="18">
-        <v>75192</v>
+        <v>38000</v>
       </c>
       <c r="G23" s="18">
-        <v>1879800</v>
+        <v>1753920</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1498,19 +1498,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F24" s="18">
-        <v>37115</v>
+        <v>38000</v>
       </c>
       <c r="G24" s="18">
-        <v>959880</v>
+        <v>1753920</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1521,19 +1521,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F25" s="18">
-        <v>120000</v>
+        <v>38000</v>
       </c>
       <c r="G25" s="18">
-        <v>3000000</v>
+        <v>1753920</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1544,19 +1544,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F26" s="18">
-        <v>75192</v>
+        <v>38000</v>
       </c>
       <c r="G26" s="18">
-        <v>1879800</v>
+        <v>1753920</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1567,19 +1567,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F27" s="18">
-        <v>38395</v>
+        <v>38000</v>
       </c>
       <c r="G27" s="18">
-        <v>959880</v>
+        <v>1753920</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1590,19 +1590,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F28" s="18">
-        <v>75192</v>
+        <v>38000</v>
       </c>
       <c r="G28" s="18">
-        <v>1879800</v>
+        <v>1753920</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1613,19 +1613,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F29" s="18">
-        <v>38395</v>
+        <v>38000</v>
       </c>
       <c r="G29" s="18">
-        <v>959880</v>
+        <v>1753920</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1636,19 +1636,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F30" s="18">
-        <v>120000</v>
+        <v>38000</v>
       </c>
       <c r="G30" s="18">
-        <v>3000000</v>
+        <v>1753920</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1659,19 +1659,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F31" s="18">
-        <v>75192</v>
+        <v>38000</v>
       </c>
       <c r="G31" s="18">
-        <v>1879800</v>
+        <v>1753920</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1682,19 +1682,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F32" s="18">
-        <v>38395</v>
+        <v>38000</v>
       </c>
       <c r="G32" s="18">
-        <v>959880</v>
+        <v>1753920</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1705,19 +1705,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F33" s="18">
-        <v>120000</v>
+        <v>38000</v>
       </c>
       <c r="G33" s="18">
-        <v>3000000</v>
+        <v>1753920</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1728,19 +1728,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F34" s="18">
-        <v>1776</v>
+        <v>38000</v>
       </c>
       <c r="G34" s="18">
-        <v>1332150</v>
+        <v>1753920</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1751,19 +1751,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F35" s="18">
-        <v>38395</v>
+        <v>38000</v>
       </c>
       <c r="G35" s="18">
-        <v>959880</v>
+        <v>1753920</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1774,19 +1774,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F36" s="18">
-        <v>75192</v>
+        <v>38000</v>
       </c>
       <c r="G36" s="18">
-        <v>1879800</v>
+        <v>1753920</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1797,19 +1797,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F37" s="18">
-        <v>120000</v>
+        <v>38000</v>
       </c>
       <c r="G37" s="18">
-        <v>3000000</v>
+        <v>1753920</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1820,19 +1820,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F38" s="18">
-        <v>75192</v>
+        <v>38000</v>
       </c>
       <c r="G38" s="18">
-        <v>1879800</v>
+        <v>1753920</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1843,19 +1843,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F39" s="18">
-        <v>120000</v>
+        <v>38000</v>
       </c>
       <c r="G39" s="18">
-        <v>3000000</v>
+        <v>1753920</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1866,19 +1866,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F40" s="18">
-        <v>38395</v>
+        <v>38000</v>
       </c>
       <c r="G40" s="18">
-        <v>959880</v>
+        <v>1753920</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1889,19 +1889,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F41" s="18">
-        <v>38395</v>
+        <v>38000</v>
       </c>
       <c r="G41" s="18">
-        <v>959880</v>
+        <v>1753920</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1912,19 +1912,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F42" s="18">
-        <v>120000</v>
+        <v>38000</v>
       </c>
       <c r="G42" s="18">
-        <v>3000000</v>
+        <v>1753920</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1935,19 +1935,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F43" s="18">
-        <v>75192</v>
+        <v>38000</v>
       </c>
       <c r="G43" s="18">
-        <v>1879800</v>
+        <v>1753920</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1958,19 +1958,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F44" s="18">
-        <v>120000</v>
+        <v>38000</v>
       </c>
       <c r="G44" s="18">
-        <v>3000000</v>
+        <v>1753920</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1981,19 +1981,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F45" s="18">
-        <v>75192</v>
+        <v>38000</v>
       </c>
       <c r="G45" s="18">
-        <v>1879800</v>
+        <v>1753920</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2004,19 +2004,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F46" s="18">
-        <v>38395</v>
+        <v>38000</v>
       </c>
       <c r="G46" s="18">
-        <v>959880</v>
+        <v>1753920</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2027,19 +2027,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F47" s="18">
-        <v>38395</v>
+        <v>76000</v>
       </c>
       <c r="G47" s="18">
-        <v>959880</v>
+        <v>3000000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2050,13 +2050,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F48" s="18">
         <v>120000</v>
@@ -2073,19 +2073,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F49" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G49" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2096,13 +2096,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F50" s="18">
         <v>120000</v>
@@ -2119,19 +2119,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="F51" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G51" s="18">
-        <v>959880</v>
+        <v>3000000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2142,19 +2142,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F52" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G52" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2165,19 +2165,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="F53" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G53" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2188,19 +2188,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="F54" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G54" s="18">
-        <v>959880</v>
+        <v>3000000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2211,13 +2211,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="F55" s="18">
         <v>120000</v>
@@ -2234,19 +2234,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="F56" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G56" s="18">
-        <v>959880</v>
+        <v>3000000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2257,13 +2257,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="F57" s="18">
         <v>120000</v>
@@ -2280,19 +2280,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="F58" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G58" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2303,19 +2303,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="F59" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G59" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2326,13 +2326,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="F60" s="18">
         <v>120000</v>
@@ -2349,19 +2349,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="F61" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G61" s="18">
-        <v>959880</v>
+        <v>3000000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2372,19 +2372,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F62" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G62" s="18">
-        <v>959880</v>
+        <v>3000000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2395,13 +2395,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F63" s="18">
         <v>120000</v>
@@ -2418,19 +2418,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F64" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G64" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2441,13 +2441,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F65" s="18">
         <v>120000</v>
@@ -2464,19 +2464,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F66" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G66" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2487,19 +2487,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F67" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G67" s="18">
-        <v>959880</v>
+        <v>3000000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2510,19 +2510,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F68" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G68" s="18">
-        <v>959880</v>
+        <v>3000000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2533,19 +2533,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F69" s="18">
-        <v>48135</v>
+        <v>120000</v>
       </c>
       <c r="G69" s="18">
-        <v>2406750</v>
+        <v>3000000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2556,19 +2556,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F70" s="18">
-        <v>24742</v>
+        <v>120000</v>
       </c>
       <c r="G70" s="18">
-        <v>1030920</v>
+        <v>3000000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2579,19 +2579,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F71" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G71" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2602,13 +2602,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F72" s="18">
         <v>120000</v>
@@ -2625,13 +2625,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F73" s="18">
         <v>120000</v>
@@ -2648,19 +2648,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F74" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G74" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2671,19 +2671,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F75" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G75" s="18">
-        <v>959880</v>
+        <v>3000000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2694,19 +2694,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F76" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G76" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2717,19 +2717,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F77" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G77" s="18">
-        <v>959880</v>
+        <v>3000000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2740,13 +2740,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F78" s="18">
         <v>120000</v>
@@ -2763,19 +2763,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F79" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G79" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2786,13 +2786,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F80" s="18">
         <v>120000</v>
@@ -2809,19 +2809,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F81" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G81" s="18">
-        <v>959880</v>
+        <v>3000000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2832,19 +2832,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F82" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G82" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2855,13 +2855,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F83" s="18">
         <v>120000</v>
@@ -2878,19 +2878,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F84" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G84" s="18">
-        <v>959880</v>
+        <v>3000000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2901,19 +2901,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F85" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G85" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2924,19 +2924,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F86" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G86" s="18">
-        <v>959880</v>
+        <v>3000000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2947,13 +2947,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F87" s="18">
         <v>120000</v>
@@ -2970,19 +2970,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F88" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G88" s="18">
-        <v>959880</v>
+        <v>3000000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2993,19 +2993,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F89" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G89" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -3016,13 +3016,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F90" s="18">
         <v>120000</v>
@@ -3039,19 +3039,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="F91" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G91" s="18">
-        <v>959880</v>
+        <v>3000000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3062,13 +3062,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="F92" s="18">
         <v>120000</v>
@@ -3085,19 +3085,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F93" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G93" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3108,19 +3108,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F94" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G94" s="18">
-        <v>959880</v>
+        <v>3000000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3131,19 +3131,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F95" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G95" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3154,13 +3154,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="F96" s="18">
         <v>120000</v>
@@ -3177,13 +3177,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="F97" s="18">
         <v>120000</v>
@@ -3200,19 +3200,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F98" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G98" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3223,19 +3223,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="F99" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G99" s="18">
-        <v>959880</v>
+        <v>3000000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3246,19 +3246,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="F100" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G100" s="18">
-        <v>959880</v>
+        <v>3000000</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3269,13 +3269,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F101" s="18">
         <v>120000</v>
@@ -3292,19 +3292,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="F102" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G102" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3315,19 +3315,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F103" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G103" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3338,13 +3338,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="F104" s="18">
         <v>120000</v>
@@ -3361,19 +3361,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="F105" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G105" s="18">
-        <v>959880</v>
+        <v>3000000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3384,19 +3384,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="F106" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G106" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3407,19 +3407,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="F107" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G107" s="18">
-        <v>959880</v>
+        <v>3000000</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3430,13 +3430,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="F108" s="18">
         <v>120000</v>
@@ -3453,19 +3453,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="F109" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G109" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3476,13 +3476,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F110" s="18">
         <v>120000</v>
@@ -3499,19 +3499,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="F111" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G111" s="18">
-        <v>959880</v>
+        <v>3000000</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3522,13 +3522,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="F112" s="18">
         <v>120000</v>
@@ -3545,19 +3545,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="F113" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G113" s="18">
-        <v>959880</v>
+        <v>3000000</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3568,19 +3568,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="F114" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G114" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3591,19 +3591,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="F115" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G115" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3614,19 +3614,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="F116" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G116" s="18">
-        <v>959880</v>
+        <v>3000000</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3637,13 +3637,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="F117" s="18">
         <v>120000</v>
@@ -3660,19 +3660,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="F118" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G118" s="18">
-        <v>959880</v>
+        <v>3000000</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3683,19 +3683,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="F119" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G119" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3706,13 +3706,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="F120" s="18">
         <v>120000</v>
@@ -3729,19 +3729,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="F121" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G121" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3752,19 +3752,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="F122" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G122" s="18">
-        <v>959880</v>
+        <v>3000000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3775,13 +3775,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="F123" s="18">
         <v>120000</v>
@@ -3798,19 +3798,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="F124" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G124" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3821,19 +3821,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="F125" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G125" s="18">
-        <v>959880</v>
+        <v>3000000</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3844,13 +3844,13 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="F126" s="18">
         <v>120000</v>
@@ -3867,19 +3867,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="F127" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G127" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3890,19 +3890,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="F128" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G128" s="18">
-        <v>959880</v>
+        <v>3000000</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3913,13 +3913,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="F129" s="18">
         <v>120000</v>
@@ -3936,19 +3936,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="F130" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G130" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3959,19 +3959,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="F131" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G131" s="18">
-        <v>959880</v>
+        <v>3000000</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -3982,13 +3982,13 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="F132" s="18">
         <v>120000</v>
@@ -4005,19 +4005,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="F133" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G133" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -4028,19 +4028,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="F134" s="18">
-        <v>38395</v>
+        <v>2016</v>
       </c>
       <c r="G134" s="18">
-        <v>959880</v>
+        <v>1512000</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4051,19 +4051,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="F135" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G135" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4074,16 +4074,16 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F136" s="18">
-        <v>75192</v>
+        <v>47622</v>
       </c>
       <c r="G136" s="18">
         <v>1879800</v>
@@ -4097,19 +4097,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F137" s="18">
-        <v>38395</v>
+        <v>75192</v>
       </c>
       <c r="G137" s="18">
-        <v>959880</v>
+        <v>1879800</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4120,19 +4120,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F138" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G138" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4143,19 +4143,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F139" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G139" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4166,19 +4166,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F140" s="18">
-        <v>38395</v>
+        <v>75192</v>
       </c>
       <c r="G140" s="18">
-        <v>959880</v>
+        <v>1879800</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4189,13 +4189,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F141" s="18">
         <v>75192</v>
@@ -4212,19 +4212,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F142" s="18">
-        <v>38000</v>
+        <v>75192</v>
       </c>
       <c r="G142" s="18">
-        <v>1753920</v>
+        <v>1879800</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4235,19 +4235,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F143" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G143" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4258,13 +4258,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F144" s="18">
         <v>75192</v>
@@ -4281,19 +4281,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F145" s="18">
-        <v>38395</v>
+        <v>75192</v>
       </c>
       <c r="G145" s="18">
-        <v>959880</v>
+        <v>1879800</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4304,19 +4304,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F146" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G146" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4327,19 +4327,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F147" s="18">
-        <v>38000</v>
+        <v>75192</v>
       </c>
       <c r="G147" s="18">
-        <v>1753920</v>
+        <v>1879800</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4350,13 +4350,13 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F148" s="18">
         <v>75192</v>
@@ -4373,19 +4373,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F149" s="18">
-        <v>38395</v>
+        <v>75192</v>
       </c>
       <c r="G149" s="18">
-        <v>959880</v>
+        <v>1879800</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4396,19 +4396,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F150" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G150" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4419,13 +4419,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D151" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E151" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="D151" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E151" s="16" t="s">
-        <v>69</v>
       </c>
       <c r="F151" s="18">
         <v>75192</v>
@@ -4442,19 +4442,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="F152" s="18">
-        <v>38000</v>
+        <v>75192</v>
       </c>
       <c r="G152" s="18">
-        <v>1753920</v>
+        <v>1879800</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4465,19 +4465,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D153" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E153" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D153" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E153" s="16" t="s">
-        <v>69</v>
-      </c>
       <c r="F153" s="18">
-        <v>38395</v>
+        <v>75192</v>
       </c>
       <c r="G153" s="18">
-        <v>959880</v>
+        <v>1879800</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4488,19 +4488,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="F154" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G154" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4511,13 +4511,13 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="F155" s="18">
         <v>75192</v>
@@ -4534,19 +4534,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="F156" s="18">
-        <v>38395</v>
+        <v>75192</v>
       </c>
       <c r="G156" s="18">
-        <v>959880</v>
+        <v>1879800</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4557,19 +4557,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="F157" s="18">
-        <v>38000</v>
+        <v>75192</v>
       </c>
       <c r="G157" s="18">
-        <v>1753920</v>
+        <v>1879800</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4580,19 +4580,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="F158" s="18">
-        <v>38395</v>
+        <v>75192</v>
       </c>
       <c r="G158" s="18">
-        <v>959880</v>
+        <v>1879800</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4603,19 +4603,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="F159" s="18">
-        <v>38000</v>
+        <v>75192</v>
       </c>
       <c r="G159" s="18">
-        <v>1753920</v>
+        <v>1879800</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4626,19 +4626,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F160" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G160" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4649,13 +4649,13 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="F161" s="18">
         <v>75192</v>
@@ -4672,19 +4672,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="F162" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G162" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4695,19 +4695,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="F163" s="18">
-        <v>38000</v>
+        <v>75192</v>
       </c>
       <c r="G163" s="18">
-        <v>1753920</v>
+        <v>1879800</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4718,19 +4718,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="F164" s="18">
-        <v>38395</v>
+        <v>75192</v>
       </c>
       <c r="G164" s="18">
-        <v>959880</v>
+        <v>1879800</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -4741,13 +4741,13 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="F165" s="18">
         <v>75192</v>
@@ -4764,19 +4764,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="F166" s="18">
-        <v>38395</v>
+        <v>75192</v>
       </c>
       <c r="G166" s="18">
-        <v>959880</v>
+        <v>1879800</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -4787,13 +4787,13 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="F167" s="18">
         <v>75192</v>
@@ -4810,19 +4810,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="F168" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G168" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -4833,19 +4833,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="F169" s="18">
-        <v>38000</v>
+        <v>75192</v>
       </c>
       <c r="G169" s="18">
-        <v>1753920</v>
+        <v>1879800</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4856,13 +4856,13 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="F170" s="18">
         <v>75192</v>
@@ -4879,19 +4879,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="F171" s="18">
-        <v>38000</v>
+        <v>75192</v>
       </c>
       <c r="G171" s="18">
-        <v>1753920</v>
+        <v>1879800</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4902,19 +4902,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F172" s="18">
-        <v>38395</v>
+        <v>75192</v>
       </c>
       <c r="G172" s="18">
-        <v>959880</v>
+        <v>1879800</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -4925,19 +4925,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="F173" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G173" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -4948,19 +4948,19 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="F174" s="18">
-        <v>38395</v>
+        <v>75192</v>
       </c>
       <c r="G174" s="18">
-        <v>959880</v>
+        <v>1879800</v>
       </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
@@ -4971,13 +4971,13 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="F175" s="18">
         <v>75192</v>
@@ -4994,19 +4994,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="F176" s="18">
-        <v>38000</v>
+        <v>75192</v>
       </c>
       <c r="G176" s="18">
-        <v>1753920</v>
+        <v>1879800</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -5017,19 +5017,19 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="F177" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G177" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -5040,13 +5040,13 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="F178" s="18">
         <v>75192</v>
@@ -5063,19 +5063,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="F179" s="18">
-        <v>38395</v>
+        <v>75192</v>
       </c>
       <c r="G179" s="18">
-        <v>959880</v>
+        <v>1879800</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -5086,19 +5086,19 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F180" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G180" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
@@ -5109,19 +5109,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F181" s="18">
-        <v>38000</v>
+        <v>75192</v>
       </c>
       <c r="G181" s="18">
-        <v>1753920</v>
+        <v>1879800</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5132,13 +5132,13 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F182" s="18">
         <v>75192</v>
@@ -5155,19 +5155,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="D183" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E183" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E183" s="16" t="s">
-        <v>77</v>
-      </c>
       <c r="F183" s="18">
-        <v>38000</v>
+        <v>75192</v>
       </c>
       <c r="G183" s="18">
-        <v>1753920</v>
+        <v>1879800</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5178,19 +5178,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F184" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G184" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -5201,19 +5201,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F185" s="18">
-        <v>38395</v>
+        <v>75192</v>
       </c>
       <c r="G185" s="18">
-        <v>959880</v>
+        <v>1879800</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5224,13 +5224,13 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F186" s="18">
         <v>75192</v>
@@ -5247,19 +5247,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F187" s="18">
-        <v>38000</v>
+        <v>75192</v>
       </c>
       <c r="G187" s="18">
-        <v>1753920</v>
+        <v>1879800</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5270,19 +5270,19 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F188" s="18">
-        <v>26877</v>
+        <v>75192</v>
       </c>
       <c r="G188" s="18">
-        <v>959880</v>
+        <v>1879800</v>
       </c>
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
@@ -5293,19 +5293,19 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F189" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G189" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5316,13 +5316,13 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F190" s="18">
         <v>75192</v>
@@ -5339,19 +5339,19 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F191" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G191" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -5362,19 +5362,19 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F192" s="18">
-        <v>38000</v>
+        <v>75192</v>
       </c>
       <c r="G192" s="18">
-        <v>1753920</v>
+        <v>1879800</v>
       </c>
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
@@ -5385,19 +5385,19 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F193" s="18">
-        <v>2016</v>
+        <v>75192</v>
       </c>
       <c r="G193" s="18">
-        <v>1512000</v>
+        <v>1879800</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
@@ -5408,19 +5408,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F194" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G194" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -5431,13 +5431,13 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F195" s="18">
         <v>75192</v>
@@ -5454,19 +5454,19 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F196" s="18">
-        <v>38000</v>
+        <v>75192</v>
       </c>
       <c r="G196" s="18">
-        <v>1753920</v>
+        <v>1879800</v>
       </c>
       <c r="H196" s="19"/>
       <c r="I196" s="19"/>
@@ -5477,19 +5477,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F197" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G197" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5500,19 +5500,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F198" s="18">
-        <v>38000</v>
+        <v>75192</v>
       </c>
       <c r="G198" s="18">
-        <v>1753920</v>
+        <v>1879800</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5523,13 +5523,13 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F199" s="18">
         <v>75192</v>
@@ -5546,19 +5546,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F200" s="18">
-        <v>38000</v>
+        <v>75192</v>
       </c>
       <c r="G200" s="18">
-        <v>1753920</v>
+        <v>1879800</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5569,10 +5569,10 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E201" s="16" t="s">
         <v>84</v>
@@ -5592,19 +5592,19 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F202" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G202" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="19"/>
@@ -5615,19 +5615,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="F203" s="18">
-        <v>38000</v>
+        <v>75192</v>
       </c>
       <c r="G203" s="18">
-        <v>1753920</v>
+        <v>1879800</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5638,13 +5638,13 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F204" s="18">
         <v>75192</v>
@@ -5661,19 +5661,19 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F205" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G205" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
@@ -5684,13 +5684,13 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F206" s="18">
         <v>75192</v>
@@ -5707,19 +5707,19 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F207" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G207" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
@@ -5730,19 +5730,19 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F208" s="18">
-        <v>38000</v>
+        <v>75192</v>
       </c>
       <c r="G208" s="18">
-        <v>1753920</v>
+        <v>1879800</v>
       </c>
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
@@ -5753,19 +5753,19 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F209" s="18">
-        <v>38000</v>
+        <v>75192</v>
       </c>
       <c r="G209" s="18">
-        <v>1753920</v>
+        <v>1879800</v>
       </c>
       <c r="H209" s="19"/>
       <c r="I209" s="19"/>
@@ -5776,13 +5776,13 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F210" s="18">
         <v>75192</v>
@@ -5799,19 +5799,19 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F211" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G211" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H211" s="19"/>
       <c r="I211" s="19"/>
@@ -5822,13 +5822,13 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F212" s="18">
         <v>75192</v>
@@ -5845,19 +5845,19 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F213" s="18">
-        <v>38000</v>
+        <v>75192</v>
       </c>
       <c r="G213" s="18">
-        <v>1753920</v>
+        <v>1879800</v>
       </c>
       <c r="H213" s="19"/>
       <c r="I213" s="19"/>
@@ -5868,19 +5868,19 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="F214" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G214" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H214" s="19"/>
       <c r="I214" s="19"/>
@@ -5891,13 +5891,13 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F215" s="18">
         <v>75192</v>
@@ -5914,19 +5914,19 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F216" s="18">
-        <v>38000</v>
+        <v>75192</v>
       </c>
       <c r="G216" s="18">
-        <v>1753920</v>
+        <v>1879800</v>
       </c>
       <c r="H216" s="19"/>
       <c r="I216" s="19"/>
@@ -5937,19 +5937,19 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="F217" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G217" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H217" s="19"/>
       <c r="I217" s="19"/>
@@ -5960,19 +5960,19 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F218" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G218" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H218" s="19"/>
       <c r="I218" s="19"/>
@@ -5983,19 +5983,19 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F219" s="18">
-        <v>38000</v>
+        <v>75192</v>
       </c>
       <c r="G219" s="18">
-        <v>1753920</v>
+        <v>1879800</v>
       </c>
       <c r="H219" s="19"/>
       <c r="I219" s="19"/>
@@ -6006,19 +6006,19 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="F220" s="18">
-        <v>3653</v>
+        <v>26877</v>
       </c>
       <c r="G220" s="18">
-        <v>1370000</v>
+        <v>4066740</v>
       </c>
       <c r="H220" s="19"/>
       <c r="I220" s="19"/>
@@ -6029,19 +6029,19 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="F221" s="18">
-        <v>75192</v>
+        <v>38395</v>
       </c>
       <c r="G221" s="18">
-        <v>1879800</v>
+        <v>4066740</v>
       </c>
       <c r="H221" s="19"/>
       <c r="I221" s="19"/>
@@ -6052,19 +6052,19 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="F222" s="18">
-        <v>38000</v>
+        <v>38395</v>
       </c>
       <c r="G222" s="18">
-        <v>1753920</v>
+        <v>4066740</v>
       </c>
       <c r="H222" s="19"/>
       <c r="I222" s="19"/>
@@ -6075,19 +6075,19 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="F223" s="18">
-        <v>75192</v>
+        <v>38395</v>
       </c>
       <c r="G223" s="18">
-        <v>1879800</v>
+        <v>4066740</v>
       </c>
       <c r="H223" s="19"/>
       <c r="I223" s="19"/>
@@ -6098,19 +6098,19 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="F224" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G224" s="18">
-        <v>3000000</v>
+        <v>4066740</v>
       </c>
       <c r="H224" s="19"/>
       <c r="I224" s="19"/>
@@ -6121,19 +6121,19 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="F225" s="18">
-        <v>38000</v>
+        <v>38395</v>
       </c>
       <c r="G225" s="18">
-        <v>1753920</v>
+        <v>4066740</v>
       </c>
       <c r="H225" s="19"/>
       <c r="I225" s="19"/>
@@ -6144,19 +6144,19 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="F226" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G226" s="18">
-        <v>3000000</v>
+        <v>4066740</v>
       </c>
       <c r="H226" s="19"/>
       <c r="I226" s="19"/>
@@ -6167,19 +6167,19 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="F227" s="18">
-        <v>75192</v>
+        <v>38395</v>
       </c>
       <c r="G227" s="18">
-        <v>1879800</v>
+        <v>4066740</v>
       </c>
       <c r="H227" s="19"/>
       <c r="I227" s="19"/>
@@ -6190,19 +6190,19 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="F228" s="18">
-        <v>38000</v>
+        <v>38395</v>
       </c>
       <c r="G228" s="18">
-        <v>1753920</v>
+        <v>4066740</v>
       </c>
       <c r="H228" s="19"/>
       <c r="I228" s="19"/>
@@ -6213,19 +6213,19 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="F229" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G229" s="18">
-        <v>3000000</v>
+        <v>4066740</v>
       </c>
       <c r="H229" s="19"/>
       <c r="I229" s="19"/>
@@ -6236,19 +6236,19 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="F230" s="18">
-        <v>75192</v>
+        <v>38395</v>
       </c>
       <c r="G230" s="18">
-        <v>1879800</v>
+        <v>4066740</v>
       </c>
       <c r="H230" s="19"/>
       <c r="I230" s="19"/>
@@ -6259,19 +6259,19 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="F231" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G231" s="18">
-        <v>3000000</v>
+        <v>4066740</v>
       </c>
       <c r="H231" s="19"/>
       <c r="I231" s="19"/>
@@ -6282,19 +6282,19 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="F232" s="18">
-        <v>75192</v>
+        <v>38395</v>
       </c>
       <c r="G232" s="18">
-        <v>1879800</v>
+        <v>4066740</v>
       </c>
       <c r="H232" s="19"/>
       <c r="I232" s="19"/>
@@ -6305,19 +6305,19 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="F233" s="18">
-        <v>38000</v>
+        <v>38395</v>
       </c>
       <c r="G233" s="18">
-        <v>1753920</v>
+        <v>4066740</v>
       </c>
       <c r="H233" s="19"/>
       <c r="I233" s="19"/>
@@ -6328,19 +6328,19 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="F234" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G234" s="18">
-        <v>3000000</v>
+        <v>4066740</v>
       </c>
       <c r="H234" s="19"/>
       <c r="I234" s="19"/>
@@ -6351,19 +6351,19 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="D235" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E235" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E235" s="16" t="s">
-        <v>97</v>
-      </c>
       <c r="F235" s="18">
-        <v>38000</v>
+        <v>38395</v>
       </c>
       <c r="G235" s="18">
-        <v>1753920</v>
+        <v>4066740</v>
       </c>
       <c r="H235" s="19"/>
       <c r="I235" s="19"/>
@@ -6374,19 +6374,19 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="F236" s="18">
-        <v>75192</v>
+        <v>38395</v>
       </c>
       <c r="G236" s="18">
-        <v>1879800</v>
+        <v>4066740</v>
       </c>
       <c r="H236" s="19"/>
       <c r="I236" s="19"/>
@@ -6397,19 +6397,19 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="F237" s="18">
-        <v>38000</v>
+        <v>38395</v>
       </c>
       <c r="G237" s="18">
-        <v>1753920</v>
+        <v>4066740</v>
       </c>
       <c r="H237" s="19"/>
       <c r="I237" s="19"/>
@@ -6420,19 +6420,19 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="F238" s="18">
-        <v>75192</v>
+        <v>38395</v>
       </c>
       <c r="G238" s="18">
-        <v>1879800</v>
+        <v>4066740</v>
       </c>
       <c r="H238" s="19"/>
       <c r="I238" s="19"/>
@@ -6443,19 +6443,19 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="F239" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G239" s="18">
-        <v>3000000</v>
+        <v>4066740</v>
       </c>
       <c r="H239" s="19"/>
       <c r="I239" s="19"/>
@@ -6466,19 +6466,19 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="F240" s="18">
-        <v>38000</v>
+        <v>38395</v>
       </c>
       <c r="G240" s="18">
-        <v>1753920</v>
+        <v>4066740</v>
       </c>
       <c r="H240" s="19"/>
       <c r="I240" s="19"/>
@@ -6489,19 +6489,19 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="F241" s="18">
-        <v>75192</v>
+        <v>38395</v>
       </c>
       <c r="G241" s="18">
-        <v>1879800</v>
+        <v>4066740</v>
       </c>
       <c r="H241" s="19"/>
       <c r="I241" s="19"/>
@@ -6512,19 +6512,19 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="F242" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G242" s="18">
-        <v>3000000</v>
+        <v>4066740</v>
       </c>
       <c r="H242" s="19"/>
       <c r="I242" s="19"/>
@@ -6535,19 +6535,19 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="F243" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G243" s="18">
-        <v>3000000</v>
+        <v>4066740</v>
       </c>
       <c r="H243" s="19"/>
       <c r="I243" s="19"/>
@@ -6558,19 +6558,19 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F244" s="18">
-        <v>75192</v>
+        <v>38395</v>
       </c>
       <c r="G244" s="18">
-        <v>1879800</v>
+        <v>4066740</v>
       </c>
       <c r="H244" s="19"/>
       <c r="I244" s="19"/>
@@ -6581,19 +6581,19 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="F245" s="18">
-        <v>75192</v>
+        <v>38395</v>
       </c>
       <c r="G245" s="18">
-        <v>1879800</v>
+        <v>4066740</v>
       </c>
       <c r="H245" s="19"/>
       <c r="I245" s="19"/>
@@ -6604,19 +6604,19 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="F246" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G246" s="18">
-        <v>3000000</v>
+        <v>4066740</v>
       </c>
       <c r="H246" s="19"/>
       <c r="I246" s="19"/>
@@ -6627,19 +6627,19 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="F247" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G247" s="18">
-        <v>3000000</v>
+        <v>4066740</v>
       </c>
       <c r="H247" s="19"/>
       <c r="I247" s="19"/>
@@ -6650,19 +6650,19 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="F248" s="18">
-        <v>75192</v>
+        <v>38395</v>
       </c>
       <c r="G248" s="18">
-        <v>1879800</v>
+        <v>4066740</v>
       </c>
       <c r="H248" s="19"/>
       <c r="I248" s="19"/>
@@ -6673,19 +6673,19 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="F249" s="18">
-        <v>75192</v>
+        <v>38395</v>
       </c>
       <c r="G249" s="18">
-        <v>1879800</v>
+        <v>4066740</v>
       </c>
       <c r="H249" s="19"/>
       <c r="I249" s="19"/>
@@ -6696,19 +6696,19 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="F250" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G250" s="18">
-        <v>3000000</v>
+        <v>4066740</v>
       </c>
       <c r="H250" s="19"/>
       <c r="I250" s="19"/>
@@ -6719,19 +6719,19 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="F251" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G251" s="18">
-        <v>3000000</v>
+        <v>4066740</v>
       </c>
       <c r="H251" s="19"/>
       <c r="I251" s="19"/>
@@ -6742,19 +6742,19 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="F252" s="18">
-        <v>75192</v>
+        <v>38395</v>
       </c>
       <c r="G252" s="18">
-        <v>1879800</v>
+        <v>4066740</v>
       </c>
       <c r="H252" s="19"/>
       <c r="I252" s="19"/>
@@ -6765,19 +6765,19 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="F253" s="18">
-        <v>75192</v>
+        <v>38395</v>
       </c>
       <c r="G253" s="18">
-        <v>1879800</v>
+        <v>4066740</v>
       </c>
       <c r="H253" s="19"/>
       <c r="I253" s="19"/>
@@ -6788,19 +6788,19 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F254" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G254" s="18">
-        <v>3000000</v>
+        <v>4066740</v>
       </c>
       <c r="H254" s="19"/>
       <c r="I254" s="19"/>
@@ -6811,19 +6811,19 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="F255" s="18">
-        <v>75192</v>
+        <v>38395</v>
       </c>
       <c r="G255" s="18">
-        <v>1879800</v>
+        <v>4066740</v>
       </c>
       <c r="H255" s="19"/>
       <c r="I255" s="19"/>
@@ -6834,19 +6834,19 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="F256" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G256" s="18">
-        <v>3000000</v>
+        <v>4066740</v>
       </c>
       <c r="H256" s="19"/>
       <c r="I256" s="19"/>
@@ -6857,19 +6857,19 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="F257" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G257" s="18">
-        <v>3000000</v>
+        <v>4066740</v>
       </c>
       <c r="H257" s="19"/>
       <c r="I257" s="19"/>
@@ -6880,19 +6880,19 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="F258" s="18">
-        <v>75192</v>
+        <v>38395</v>
       </c>
       <c r="G258" s="18">
-        <v>1879800</v>
+        <v>4066740</v>
       </c>
       <c r="H258" s="19"/>
       <c r="I258" s="19"/>
@@ -6903,19 +6903,19 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="F259" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G259" s="18">
-        <v>3000000</v>
+        <v>4066740</v>
       </c>
       <c r="H259" s="19"/>
       <c r="I259" s="19"/>
@@ -6926,19 +6926,19 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F260" s="18">
-        <v>75192</v>
+        <v>38395</v>
       </c>
       <c r="G260" s="18">
-        <v>1879800</v>
+        <v>4066740</v>
       </c>
       <c r="H260" s="19"/>
       <c r="I260" s="19"/>
@@ -6949,19 +6949,19 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="F261" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G261" s="18">
-        <v>3000000</v>
+        <v>4066740</v>
       </c>
       <c r="H261" s="19"/>
       <c r="I261" s="19"/>
@@ -6972,19 +6972,19 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="F262" s="18">
-        <v>75192</v>
+        <v>38395</v>
       </c>
       <c r="G262" s="18">
-        <v>1879800</v>
+        <v>4066740</v>
       </c>
       <c r="H262" s="19"/>
       <c r="I262" s="19"/>
@@ -6995,19 +6995,19 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="F263" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G263" s="18">
-        <v>3000000</v>
+        <v>4066740</v>
       </c>
       <c r="H263" s="19"/>
       <c r="I263" s="19"/>
@@ -7018,19 +7018,19 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F264" s="18">
-        <v>75192</v>
+        <v>38395</v>
       </c>
       <c r="G264" s="18">
-        <v>1879800</v>
+        <v>4066740</v>
       </c>
       <c r="H264" s="19"/>
       <c r="I264" s="19"/>
@@ -7041,19 +7041,19 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F265" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G265" s="18">
-        <v>3000000</v>
+        <v>4066740</v>
       </c>
       <c r="H265" s="19"/>
       <c r="I265" s="19"/>
@@ -7064,19 +7064,19 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="F266" s="18">
-        <v>75192</v>
+        <v>38395</v>
       </c>
       <c r="G266" s="18">
-        <v>1879800</v>
+        <v>4066740</v>
       </c>
       <c r="H266" s="19"/>
       <c r="I266" s="19"/>
@@ -7087,19 +7087,19 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F267" s="18">
-        <v>75192</v>
+        <v>38395</v>
       </c>
       <c r="G267" s="18">
-        <v>1879800</v>
+        <v>4066740</v>
       </c>
       <c r="H267" s="19"/>
       <c r="I267" s="19"/>
@@ -7110,19 +7110,19 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F268" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G268" s="18">
-        <v>3000000</v>
+        <v>4066740</v>
       </c>
       <c r="H268" s="19"/>
       <c r="I268" s="19"/>
@@ -7133,19 +7133,19 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F269" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G269" s="18">
-        <v>3000000</v>
+        <v>4066740</v>
       </c>
       <c r="H269" s="19"/>
       <c r="I269" s="19"/>
@@ -7156,19 +7156,19 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F270" s="18">
-        <v>75192</v>
+        <v>37115</v>
       </c>
       <c r="G270" s="18">
-        <v>1879800</v>
+        <v>4066740</v>
       </c>
       <c r="H270" s="19"/>
       <c r="I270" s="19"/>
@@ -7179,19 +7179,19 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="F271" s="18">
-        <v>47622</v>
+        <v>48135</v>
       </c>
       <c r="G271" s="18">
-        <v>1879800</v>
+        <v>2406750</v>
       </c>
       <c r="H271" s="19"/>
       <c r="I271" s="19"/>
@@ -7202,19 +7202,19 @@
         <v>8</v>
       </c>
       <c r="C272" s="22" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="D272" s="23" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="E272" s="22" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="F272" s="24">
-        <v>76000</v>
+        <v>3653</v>
       </c>
       <c r="G272" s="24">
-        <v>3000000</v>
+        <v>1370000</v>
       </c>
       <c r="H272" s="25"/>
       <c r="I272" s="25"/>

--- a/Data/EC/NIT-8918567186.xlsx
+++ b/Data/EC/NIT-8918567186.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2925813-62D7-491F-A8BF-2033E205FF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A36DA88-5FE1-440D-AC2E-1432EC2F00EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C27C502C-7F28-4058-98B6-01B0E42343C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{87F59C34-B0C9-4432-ADC0-5B79DB564F1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,90 @@
     <t>CC</t>
   </si>
   <si>
+    <t>91249998</t>
+  </si>
+  <si>
+    <t>ROSMY RENE LOPEZ BASTIDAS</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>20078307</t>
+  </si>
+  <si>
+    <t>RAUL HERIBERTO DE ARCO ACEVEDO</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>7937412</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1192920468</t>
+  </si>
+  <si>
+    <t>EDUARDO LUIS AREVALO PEREZ</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1128052230</t>
+  </si>
+  <si>
+    <t>WALTER JOSE NARVAEZ PEREZ</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
     <t>1047408135</t>
   </si>
   <si>
@@ -74,13 +158,79 @@
     <t>1902</t>
   </si>
   <si>
-    <t>1128052230</t>
-  </si>
-  <si>
-    <t>WALTER JOSE NARVAEZ PEREZ</t>
-  </si>
-  <si>
-    <t>1803</t>
+    <t>20190159</t>
+  </si>
+  <si>
+    <t>OSCAR JAVIER BERRIO GUZMAN</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
   </si>
   <si>
     <t>8850119</t>
@@ -89,298 +239,148 @@
     <t>RAFAEL EMIRO BALDOVINO VILLERO</t>
   </si>
   <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>1143361829</t>
+  </si>
+  <si>
+    <t>YORELIS OROZCO CAMPO</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>1017176255</t>
+  </si>
+  <si>
+    <t>YURY BIBIANA ARIAS DAVID</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
     <t>2306</t>
   </si>
   <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>91249998</t>
-  </si>
-  <si>
-    <t>ROSMY RENE LOPEZ BASTIDAS</t>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
   </si>
   <si>
     <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1143361829</t>
-  </si>
-  <si>
-    <t>YORELIS OROZCO CAMPO</t>
-  </si>
-  <si>
-    <t>20078307</t>
-  </si>
-  <si>
-    <t>RAUL HERIBERTO DE ARCO ACEVEDO</t>
-  </si>
-  <si>
-    <t>7937412</t>
-  </si>
-  <si>
-    <t>1192920468</t>
-  </si>
-  <si>
-    <t>EDUARDO LUIS AREVALO PEREZ</t>
-  </si>
-  <si>
-    <t>20190159</t>
-  </si>
-  <si>
-    <t>OSCAR JAVIER BERRIO GUZMAN</t>
-  </si>
-  <si>
-    <t>1017176255</t>
-  </si>
-  <si>
-    <t>YURY BIBIANA ARIAS DAVID</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -479,7 +479,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -492,9 +494,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -694,23 +694,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -738,10 +738,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -794,7 +794,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{905950DC-7BC8-8CF3-3AD6-A82DF158CD2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBEBE32F-17C3-B7A8-F60F-A772C3619629}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1145,7 +1145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443EC7B5-1BD5-4CA9-A031-A566A5EF7508}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5987488-E1F1-4333-BABC-1F3FEE839C2B}">
   <dimension ref="B2:J278"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1323,10 +1323,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>24742</v>
+        <v>120000</v>
       </c>
       <c r="G16" s="18">
-        <v>1030920</v>
+        <v>3000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1343,13 +1343,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>1776</v>
+        <v>75192</v>
       </c>
       <c r="G17" s="18">
-        <v>1332150</v>
+        <v>1879800</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1360,19 +1360,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>38000</v>
+        <v>120000</v>
       </c>
       <c r="G18" s="18">
-        <v>1753920</v>
+        <v>3000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1383,19 +1383,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F19" s="18">
-        <v>38000</v>
+        <v>120000</v>
       </c>
       <c r="G19" s="18">
-        <v>1753920</v>
+        <v>3000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1406,19 +1406,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F20" s="18">
-        <v>38000</v>
+        <v>120000</v>
       </c>
       <c r="G20" s="18">
-        <v>1753920</v>
+        <v>3000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1429,19 +1429,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F21" s="18">
-        <v>38000</v>
+        <v>75192</v>
       </c>
       <c r="G21" s="18">
-        <v>1753920</v>
+        <v>1879800</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1452,19 +1452,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
-        <v>38000</v>
+        <v>120000</v>
       </c>
       <c r="G22" s="18">
-        <v>1753920</v>
+        <v>3000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1475,19 +1475,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>38000</v>
+        <v>75192</v>
       </c>
       <c r="G23" s="18">
-        <v>1753920</v>
+        <v>1879800</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1498,19 +1498,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F24" s="18">
-        <v>38000</v>
+        <v>37115</v>
       </c>
       <c r="G24" s="18">
-        <v>1753920</v>
+        <v>959880</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1521,19 +1521,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F25" s="18">
-        <v>38000</v>
+        <v>120000</v>
       </c>
       <c r="G25" s="18">
-        <v>1753920</v>
+        <v>3000000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1544,19 +1544,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>38000</v>
+        <v>75192</v>
       </c>
       <c r="G26" s="18">
-        <v>1753920</v>
+        <v>1879800</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1567,19 +1567,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F27" s="18">
-        <v>38000</v>
+        <v>38395</v>
       </c>
       <c r="G27" s="18">
-        <v>1753920</v>
+        <v>959880</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1590,19 +1590,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F28" s="18">
-        <v>38000</v>
+        <v>120000</v>
       </c>
       <c r="G28" s="18">
-        <v>1753920</v>
+        <v>3000000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1613,19 +1613,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F29" s="18">
-        <v>38000</v>
+        <v>75192</v>
       </c>
       <c r="G29" s="18">
-        <v>1753920</v>
+        <v>1879800</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1636,19 +1636,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F30" s="18">
-        <v>38000</v>
+        <v>38395</v>
       </c>
       <c r="G30" s="18">
-        <v>1753920</v>
+        <v>959880</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1659,19 +1659,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F31" s="18">
-        <v>38000</v>
+        <v>120000</v>
       </c>
       <c r="G31" s="18">
-        <v>1753920</v>
+        <v>3000000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1682,19 +1682,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F32" s="18">
-        <v>38000</v>
+        <v>75192</v>
       </c>
       <c r="G32" s="18">
-        <v>1753920</v>
+        <v>1879800</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1705,19 +1705,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F33" s="18">
-        <v>38000</v>
+        <v>38395</v>
       </c>
       <c r="G33" s="18">
-        <v>1753920</v>
+        <v>959880</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1728,19 +1728,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F34" s="18">
-        <v>38000</v>
+        <v>1776</v>
       </c>
       <c r="G34" s="18">
-        <v>1753920</v>
+        <v>1332150</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1751,19 +1751,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F35" s="18">
-        <v>38000</v>
+        <v>120000</v>
       </c>
       <c r="G35" s="18">
-        <v>1753920</v>
+        <v>3000000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1774,19 +1774,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F36" s="18">
-        <v>38000</v>
+        <v>75192</v>
       </c>
       <c r="G36" s="18">
-        <v>1753920</v>
+        <v>1879800</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1797,19 +1797,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F37" s="18">
-        <v>38000</v>
+        <v>38395</v>
       </c>
       <c r="G37" s="18">
-        <v>1753920</v>
+        <v>959880</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1820,19 +1820,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F38" s="18">
-        <v>38000</v>
+        <v>120000</v>
       </c>
       <c r="G38" s="18">
-        <v>1753920</v>
+        <v>3000000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1843,19 +1843,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F39" s="18">
-        <v>38000</v>
+        <v>75192</v>
       </c>
       <c r="G39" s="18">
-        <v>1753920</v>
+        <v>1879800</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1866,19 +1866,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F40" s="18">
-        <v>38000</v>
+        <v>38395</v>
       </c>
       <c r="G40" s="18">
-        <v>1753920</v>
+        <v>959880</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1889,19 +1889,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F41" s="18">
-        <v>38000</v>
+        <v>120000</v>
       </c>
       <c r="G41" s="18">
-        <v>1753920</v>
+        <v>3000000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1912,19 +1912,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F42" s="18">
-        <v>38000</v>
+        <v>75192</v>
       </c>
       <c r="G42" s="18">
-        <v>1753920</v>
+        <v>1879800</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1935,19 +1935,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F43" s="18">
-        <v>38000</v>
+        <v>38395</v>
       </c>
       <c r="G43" s="18">
-        <v>1753920</v>
+        <v>959880</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1958,19 +1958,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F44" s="18">
-        <v>38000</v>
+        <v>120000</v>
       </c>
       <c r="G44" s="18">
-        <v>1753920</v>
+        <v>3000000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1981,19 +1981,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F45" s="18">
-        <v>38000</v>
+        <v>75192</v>
       </c>
       <c r="G45" s="18">
-        <v>1753920</v>
+        <v>1879800</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2004,19 +2004,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F46" s="18">
-        <v>38000</v>
+        <v>38395</v>
       </c>
       <c r="G46" s="18">
-        <v>1753920</v>
+        <v>959880</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2027,16 +2027,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F47" s="18">
-        <v>76000</v>
+        <v>120000</v>
       </c>
       <c r="G47" s="18">
         <v>3000000</v>
@@ -2050,19 +2050,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F48" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G48" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2073,19 +2073,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F49" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G49" s="18">
-        <v>3000000</v>
+        <v>959880</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2096,13 +2096,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F50" s="18">
         <v>120000</v>
@@ -2119,19 +2119,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="F51" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G51" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2142,19 +2142,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="F52" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G52" s="18">
-        <v>3000000</v>
+        <v>959880</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2165,13 +2165,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="F53" s="18">
         <v>120000</v>
@@ -2188,19 +2188,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="F54" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G54" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2211,19 +2211,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="F55" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G55" s="18">
-        <v>3000000</v>
+        <v>959880</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2234,13 +2234,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="F56" s="18">
         <v>120000</v>
@@ -2257,19 +2257,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F57" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G57" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2280,19 +2280,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="F58" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G58" s="18">
-        <v>3000000</v>
+        <v>959880</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2303,13 +2303,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="F59" s="18">
         <v>120000</v>
@@ -2326,19 +2326,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="F60" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G60" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2349,19 +2349,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="F61" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G61" s="18">
-        <v>3000000</v>
+        <v>959880</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2372,13 +2372,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F62" s="18">
         <v>120000</v>
@@ -2395,19 +2395,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F63" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G63" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2418,19 +2418,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F64" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G64" s="18">
-        <v>3000000</v>
+        <v>959880</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2441,13 +2441,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F65" s="18">
         <v>120000</v>
@@ -2464,19 +2464,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F66" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G66" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2487,19 +2487,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F67" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G67" s="18">
-        <v>3000000</v>
+        <v>959880</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2510,19 +2510,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F68" s="18">
-        <v>120000</v>
+        <v>24742</v>
       </c>
       <c r="G68" s="18">
-        <v>3000000</v>
+        <v>1030920</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2533,13 +2533,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F69" s="18">
         <v>120000</v>
@@ -2556,19 +2556,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F70" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G70" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2579,19 +2579,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F71" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G71" s="18">
-        <v>3000000</v>
+        <v>959880</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2602,19 +2602,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F72" s="18">
-        <v>120000</v>
+        <v>48135</v>
       </c>
       <c r="G72" s="18">
-        <v>3000000</v>
+        <v>2406750</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2625,13 +2625,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F73" s="18">
         <v>120000</v>
@@ -2648,19 +2648,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F74" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G74" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2671,19 +2671,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F75" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G75" s="18">
-        <v>3000000</v>
+        <v>959880</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2694,13 +2694,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F76" s="18">
         <v>120000</v>
@@ -2717,19 +2717,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F77" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G77" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2740,19 +2740,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F78" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G78" s="18">
-        <v>3000000</v>
+        <v>959880</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2763,13 +2763,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F79" s="18">
         <v>120000</v>
@@ -2786,19 +2786,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F80" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G80" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2809,19 +2809,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F81" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G81" s="18">
-        <v>3000000</v>
+        <v>959880</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2832,13 +2832,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F82" s="18">
         <v>120000</v>
@@ -2855,19 +2855,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F83" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G83" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2878,19 +2878,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F84" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G84" s="18">
-        <v>3000000</v>
+        <v>959880</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2901,13 +2901,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="16" t="s">
         <v>46</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="F85" s="18">
         <v>120000</v>
@@ -2924,19 +2924,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D86" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="F86" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G86" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2947,19 +2947,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E87" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D87" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E87" s="16" t="s">
-        <v>42</v>
-      </c>
       <c r="F87" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G87" s="18">
-        <v>3000000</v>
+        <v>959880</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2970,13 +2970,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="E88" s="16" t="s">
-        <v>43</v>
       </c>
       <c r="F88" s="18">
         <v>120000</v>
@@ -2993,19 +2993,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D89" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E89" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="F89" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G89" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -3016,19 +3016,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D90" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E90" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="F90" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G90" s="18">
-        <v>3000000</v>
+        <v>959880</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3039,13 +3039,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F91" s="18">
         <v>120000</v>
@@ -3062,19 +3062,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F92" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G92" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3085,19 +3085,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="F93" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G93" s="18">
-        <v>3000000</v>
+        <v>959880</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3108,13 +3108,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="F94" s="18">
         <v>120000</v>
@@ -3131,19 +3131,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F95" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G95" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3154,19 +3154,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F96" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G96" s="18">
-        <v>3000000</v>
+        <v>959880</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3177,13 +3177,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="F97" s="18">
         <v>120000</v>
@@ -3200,19 +3200,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F98" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G98" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3223,19 +3223,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="F99" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G99" s="18">
-        <v>3000000</v>
+        <v>959880</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3246,13 +3246,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="F100" s="18">
         <v>120000</v>
@@ -3269,19 +3269,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="F101" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G101" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3292,19 +3292,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="F102" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G102" s="18">
-        <v>3000000</v>
+        <v>959880</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3315,13 +3315,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="F103" s="18">
         <v>120000</v>
@@ -3338,19 +3338,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="F104" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G104" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3361,19 +3361,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="F105" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G105" s="18">
-        <v>3000000</v>
+        <v>959880</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3384,13 +3384,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="F106" s="18">
         <v>120000</v>
@@ -3407,19 +3407,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="F107" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G107" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3430,19 +3430,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="F108" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G108" s="18">
-        <v>3000000</v>
+        <v>959880</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3453,13 +3453,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="F109" s="18">
         <v>120000</v>
@@ -3476,19 +3476,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="F110" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G110" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3499,19 +3499,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="F111" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G111" s="18">
-        <v>3000000</v>
+        <v>959880</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3522,13 +3522,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="F112" s="18">
         <v>120000</v>
@@ -3545,19 +3545,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="F113" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G113" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3568,19 +3568,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="F114" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G114" s="18">
-        <v>3000000</v>
+        <v>959880</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3591,13 +3591,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="F115" s="18">
         <v>120000</v>
@@ -3614,19 +3614,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="F116" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G116" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3637,19 +3637,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="F117" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G117" s="18">
-        <v>3000000</v>
+        <v>959880</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3660,13 +3660,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="F118" s="18">
         <v>120000</v>
@@ -3683,19 +3683,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="F119" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G119" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3706,19 +3706,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="F120" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G120" s="18">
-        <v>3000000</v>
+        <v>959880</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3729,13 +3729,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="F121" s="18">
         <v>120000</v>
@@ -3752,19 +3752,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="F122" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G122" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3775,19 +3775,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="F123" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G123" s="18">
-        <v>3000000</v>
+        <v>959880</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3798,13 +3798,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="F124" s="18">
         <v>120000</v>
@@ -3821,19 +3821,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="F125" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G125" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3844,19 +3844,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="F126" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G126" s="18">
-        <v>3000000</v>
+        <v>959880</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3867,13 +3867,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="F127" s="18">
         <v>120000</v>
@@ -3890,19 +3890,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="F128" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G128" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3913,19 +3913,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="F129" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G129" s="18">
-        <v>3000000</v>
+        <v>959880</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3936,13 +3936,13 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="F130" s="18">
         <v>120000</v>
@@ -3959,19 +3959,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="F131" s="18">
-        <v>120000</v>
+        <v>75192</v>
       </c>
       <c r="G131" s="18">
-        <v>3000000</v>
+        <v>1879800</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -3982,19 +3982,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="F132" s="18">
-        <v>120000</v>
+        <v>38395</v>
       </c>
       <c r="G132" s="18">
-        <v>3000000</v>
+        <v>959880</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -4005,13 +4005,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="F133" s="18">
         <v>120000</v>
@@ -4028,19 +4028,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="F134" s="18">
-        <v>2016</v>
+        <v>75192</v>
       </c>
       <c r="G134" s="18">
-        <v>1512000</v>
+        <v>1879800</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4051,19 +4051,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="F135" s="18">
-        <v>75192</v>
+        <v>38395</v>
       </c>
       <c r="G135" s="18">
-        <v>1879800</v>
+        <v>959880</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4074,19 +4074,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="F136" s="18">
-        <v>47622</v>
+        <v>120000</v>
       </c>
       <c r="G136" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4097,13 +4097,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="F137" s="18">
         <v>75192</v>
@@ -4120,19 +4120,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="F138" s="18">
-        <v>75192</v>
+        <v>38395</v>
       </c>
       <c r="G138" s="18">
-        <v>1879800</v>
+        <v>959880</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4143,19 +4143,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F139" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G139" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4166,13 +4166,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F140" s="18">
         <v>75192</v>
@@ -4189,19 +4189,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F141" s="18">
-        <v>75192</v>
+        <v>38395</v>
       </c>
       <c r="G141" s="18">
-        <v>1879800</v>
+        <v>959880</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4212,19 +4212,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F142" s="18">
-        <v>75192</v>
+        <v>38000</v>
       </c>
       <c r="G142" s="18">
-        <v>1879800</v>
+        <v>1753920</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4235,19 +4235,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F143" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G143" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4258,13 +4258,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="F144" s="18">
         <v>75192</v>
@@ -4281,19 +4281,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="F145" s="18">
-        <v>75192</v>
+        <v>38395</v>
       </c>
       <c r="G145" s="18">
-        <v>1879800</v>
+        <v>959880</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4304,19 +4304,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F146" s="18">
-        <v>75192</v>
+        <v>38000</v>
       </c>
       <c r="G146" s="18">
-        <v>1879800</v>
+        <v>1753920</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4327,19 +4327,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F147" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G147" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4350,13 +4350,13 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F148" s="18">
         <v>75192</v>
@@ -4373,19 +4373,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F149" s="18">
-        <v>75192</v>
+        <v>38395</v>
       </c>
       <c r="G149" s="18">
-        <v>1879800</v>
+        <v>959880</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4396,19 +4396,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F150" s="18">
-        <v>75192</v>
+        <v>38000</v>
       </c>
       <c r="G150" s="18">
-        <v>1879800</v>
+        <v>1753920</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4419,19 +4419,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="F151" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G151" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4442,13 +4442,13 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="F152" s="18">
         <v>75192</v>
@@ -4465,19 +4465,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F153" s="18">
-        <v>75192</v>
+        <v>38395</v>
       </c>
       <c r="G153" s="18">
-        <v>1879800</v>
+        <v>959880</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4488,19 +4488,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F154" s="18">
-        <v>75192</v>
+        <v>38000</v>
       </c>
       <c r="G154" s="18">
-        <v>1879800</v>
+        <v>1753920</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4511,19 +4511,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="F155" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G155" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4534,13 +4534,13 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="F156" s="18">
         <v>75192</v>
@@ -4557,19 +4557,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="F157" s="18">
-        <v>75192</v>
+        <v>38395</v>
       </c>
       <c r="G157" s="18">
-        <v>1879800</v>
+        <v>959880</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4580,19 +4580,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="F158" s="18">
-        <v>75192</v>
+        <v>38000</v>
       </c>
       <c r="G158" s="18">
-        <v>1879800</v>
+        <v>1753920</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4603,19 +4603,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="F159" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G159" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4626,13 +4626,13 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="F160" s="18">
         <v>75192</v>
@@ -4649,19 +4649,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="F161" s="18">
-        <v>75192</v>
+        <v>38395</v>
       </c>
       <c r="G161" s="18">
-        <v>1879800</v>
+        <v>959880</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4672,19 +4672,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="F162" s="18">
-        <v>75192</v>
+        <v>38000</v>
       </c>
       <c r="G162" s="18">
-        <v>1879800</v>
+        <v>1753920</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4695,19 +4695,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="F163" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G163" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4718,13 +4718,13 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="F164" s="18">
         <v>75192</v>
@@ -4741,19 +4741,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="F165" s="18">
-        <v>75192</v>
+        <v>38395</v>
       </c>
       <c r="G165" s="18">
-        <v>1879800</v>
+        <v>959880</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4764,19 +4764,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="F166" s="18">
-        <v>75192</v>
+        <v>38000</v>
       </c>
       <c r="G166" s="18">
-        <v>1879800</v>
+        <v>1753920</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -4787,19 +4787,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="F167" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G167" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4810,13 +4810,13 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="F168" s="18">
         <v>75192</v>
@@ -4833,19 +4833,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="F169" s="18">
-        <v>75192</v>
+        <v>38395</v>
       </c>
       <c r="G169" s="18">
-        <v>1879800</v>
+        <v>959880</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4856,19 +4856,19 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="F170" s="18">
-        <v>75192</v>
+        <v>38000</v>
       </c>
       <c r="G170" s="18">
-        <v>1879800</v>
+        <v>1753920</v>
       </c>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
@@ -4879,19 +4879,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="F171" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G171" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4902,13 +4902,13 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F172" s="18">
         <v>75192</v>
@@ -4925,19 +4925,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="F173" s="18">
-        <v>75192</v>
+        <v>38395</v>
       </c>
       <c r="G173" s="18">
-        <v>1879800</v>
+        <v>959880</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -4948,19 +4948,19 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="F174" s="18">
-        <v>75192</v>
+        <v>38000</v>
       </c>
       <c r="G174" s="18">
-        <v>1879800</v>
+        <v>1753920</v>
       </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
@@ -4971,19 +4971,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F175" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G175" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -4994,13 +4994,13 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="F176" s="18">
         <v>75192</v>
@@ -5017,19 +5017,19 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="F177" s="18">
-        <v>75192</v>
+        <v>38395</v>
       </c>
       <c r="G177" s="18">
-        <v>1879800</v>
+        <v>959880</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -5040,19 +5040,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="F178" s="18">
-        <v>75192</v>
+        <v>38000</v>
       </c>
       <c r="G178" s="18">
-        <v>1879800</v>
+        <v>1753920</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -5063,19 +5063,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="F179" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G179" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -5086,13 +5086,13 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F180" s="18">
         <v>75192</v>
@@ -5109,19 +5109,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F181" s="18">
-        <v>75192</v>
+        <v>38395</v>
       </c>
       <c r="G181" s="18">
-        <v>1879800</v>
+        <v>959880</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5132,19 +5132,19 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F182" s="18">
-        <v>75192</v>
+        <v>38000</v>
       </c>
       <c r="G182" s="18">
-        <v>1879800</v>
+        <v>1753920</v>
       </c>
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
@@ -5155,19 +5155,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F183" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G183" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5178,13 +5178,13 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F184" s="18">
         <v>75192</v>
@@ -5201,19 +5201,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F185" s="18">
-        <v>75192</v>
+        <v>38395</v>
       </c>
       <c r="G185" s="18">
-        <v>1879800</v>
+        <v>959880</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5224,19 +5224,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F186" s="18">
-        <v>75192</v>
+        <v>38000</v>
       </c>
       <c r="G186" s="18">
-        <v>1879800</v>
+        <v>1753920</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5247,19 +5247,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F187" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G187" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5270,13 +5270,13 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F188" s="18">
         <v>75192</v>
@@ -5293,19 +5293,19 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F189" s="18">
-        <v>75192</v>
+        <v>26877</v>
       </c>
       <c r="G189" s="18">
-        <v>1879800</v>
+        <v>959880</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5316,19 +5316,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F190" s="18">
-        <v>75192</v>
+        <v>38000</v>
       </c>
       <c r="G190" s="18">
-        <v>1879800</v>
+        <v>1753920</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5339,19 +5339,19 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F191" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G191" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -5362,13 +5362,13 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F192" s="18">
         <v>75192</v>
@@ -5385,19 +5385,19 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F193" s="18">
-        <v>75192</v>
+        <v>38000</v>
       </c>
       <c r="G193" s="18">
-        <v>1879800</v>
+        <v>1753920</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
@@ -5408,19 +5408,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F194" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G194" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -5431,19 +5431,19 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F195" s="18">
-        <v>75192</v>
+        <v>2016</v>
       </c>
       <c r="G195" s="18">
-        <v>1879800</v>
+        <v>1512000</v>
       </c>
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
@@ -5454,13 +5454,13 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F196" s="18">
         <v>75192</v>
@@ -5477,19 +5477,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F197" s="18">
-        <v>75192</v>
+        <v>38000</v>
       </c>
       <c r="G197" s="18">
-        <v>1879800</v>
+        <v>1753920</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5500,19 +5500,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F198" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G198" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5523,13 +5523,13 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F199" s="18">
         <v>75192</v>
@@ -5546,19 +5546,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F200" s="18">
-        <v>75192</v>
+        <v>38000</v>
       </c>
       <c r="G200" s="18">
-        <v>1879800</v>
+        <v>1753920</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5569,19 +5569,19 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E201" s="16" t="s">
         <v>84</v>
       </c>
       <c r="F201" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G201" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
@@ -5592,13 +5592,13 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F202" s="18">
         <v>75192</v>
@@ -5615,19 +5615,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="F203" s="18">
-        <v>75192</v>
+        <v>38000</v>
       </c>
       <c r="G203" s="18">
-        <v>1879800</v>
+        <v>1753920</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5638,19 +5638,19 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F204" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G204" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H204" s="19"/>
       <c r="I204" s="19"/>
@@ -5661,13 +5661,13 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F205" s="18">
         <v>75192</v>
@@ -5684,19 +5684,19 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F206" s="18">
-        <v>75192</v>
+        <v>38000</v>
       </c>
       <c r="G206" s="18">
-        <v>1879800</v>
+        <v>1753920</v>
       </c>
       <c r="H206" s="19"/>
       <c r="I206" s="19"/>
@@ -5707,19 +5707,19 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F207" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G207" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
@@ -5730,13 +5730,13 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F208" s="18">
         <v>75192</v>
@@ -5753,19 +5753,19 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F209" s="18">
-        <v>75192</v>
+        <v>38000</v>
       </c>
       <c r="G209" s="18">
-        <v>1879800</v>
+        <v>1753920</v>
       </c>
       <c r="H209" s="19"/>
       <c r="I209" s="19"/>
@@ -5776,19 +5776,19 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F210" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G210" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H210" s="19"/>
       <c r="I210" s="19"/>
@@ -5799,13 +5799,13 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F211" s="18">
         <v>75192</v>
@@ -5822,19 +5822,19 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F212" s="18">
-        <v>75192</v>
+        <v>38000</v>
       </c>
       <c r="G212" s="18">
-        <v>1879800</v>
+        <v>1753920</v>
       </c>
       <c r="H212" s="19"/>
       <c r="I212" s="19"/>
@@ -5845,19 +5845,19 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F213" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G213" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H213" s="19"/>
       <c r="I213" s="19"/>
@@ -5868,13 +5868,13 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="F214" s="18">
         <v>75192</v>
@@ -5891,19 +5891,19 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F215" s="18">
-        <v>75192</v>
+        <v>38000</v>
       </c>
       <c r="G215" s="18">
-        <v>1879800</v>
+        <v>1753920</v>
       </c>
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
@@ -5914,19 +5914,19 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F216" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G216" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H216" s="19"/>
       <c r="I216" s="19"/>
@@ -5937,13 +5937,13 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F217" s="18">
         <v>75192</v>
@@ -5960,19 +5960,19 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F218" s="18">
-        <v>75192</v>
+        <v>38000</v>
       </c>
       <c r="G218" s="18">
-        <v>1879800</v>
+        <v>1753920</v>
       </c>
       <c r="H218" s="19"/>
       <c r="I218" s="19"/>
@@ -5983,19 +5983,19 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F219" s="18">
-        <v>75192</v>
+        <v>120000</v>
       </c>
       <c r="G219" s="18">
-        <v>1879800</v>
+        <v>3000000</v>
       </c>
       <c r="H219" s="19"/>
       <c r="I219" s="19"/>
@@ -6006,19 +6006,19 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="F220" s="18">
-        <v>26877</v>
+        <v>75192</v>
       </c>
       <c r="G220" s="18">
-        <v>4066740</v>
+        <v>1879800</v>
       </c>
       <c r="H220" s="19"/>
       <c r="I220" s="19"/>
@@ -6029,19 +6029,19 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="F221" s="18">
-        <v>38395</v>
+        <v>3653</v>
       </c>
       <c r="G221" s="18">
-        <v>4066740</v>
+        <v>1370000</v>
       </c>
       <c r="H221" s="19"/>
       <c r="I221" s="19"/>
@@ -6052,19 +6052,19 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="F222" s="18">
-        <v>38395</v>
+        <v>38000</v>
       </c>
       <c r="G222" s="18">
-        <v>4066740</v>
+        <v>1753920</v>
       </c>
       <c r="H222" s="19"/>
       <c r="I222" s="19"/>
@@ -6075,19 +6075,19 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="F223" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G223" s="18">
-        <v>4066740</v>
+        <v>3000000</v>
       </c>
       <c r="H223" s="19"/>
       <c r="I223" s="19"/>
@@ -6098,19 +6098,19 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="F224" s="18">
-        <v>38395</v>
+        <v>75192</v>
       </c>
       <c r="G224" s="18">
-        <v>4066740</v>
+        <v>1879800</v>
       </c>
       <c r="H224" s="19"/>
       <c r="I224" s="19"/>
@@ -6121,19 +6121,19 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="F225" s="18">
-        <v>38395</v>
+        <v>38000</v>
       </c>
       <c r="G225" s="18">
-        <v>4066740</v>
+        <v>1753920</v>
       </c>
       <c r="H225" s="19"/>
       <c r="I225" s="19"/>
@@ -6144,19 +6144,19 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="F226" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G226" s="18">
-        <v>4066740</v>
+        <v>3000000</v>
       </c>
       <c r="H226" s="19"/>
       <c r="I226" s="19"/>
@@ -6167,19 +6167,19 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="F227" s="18">
-        <v>38395</v>
+        <v>75192</v>
       </c>
       <c r="G227" s="18">
-        <v>4066740</v>
+        <v>1879800</v>
       </c>
       <c r="H227" s="19"/>
       <c r="I227" s="19"/>
@@ -6190,19 +6190,19 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="F228" s="18">
-        <v>38395</v>
+        <v>38000</v>
       </c>
       <c r="G228" s="18">
-        <v>4066740</v>
+        <v>1753920</v>
       </c>
       <c r="H228" s="19"/>
       <c r="I228" s="19"/>
@@ -6213,19 +6213,19 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="F229" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G229" s="18">
-        <v>4066740</v>
+        <v>3000000</v>
       </c>
       <c r="H229" s="19"/>
       <c r="I229" s="19"/>
@@ -6236,19 +6236,19 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="F230" s="18">
-        <v>38395</v>
+        <v>75192</v>
       </c>
       <c r="G230" s="18">
-        <v>4066740</v>
+        <v>1879800</v>
       </c>
       <c r="H230" s="19"/>
       <c r="I230" s="19"/>
@@ -6259,19 +6259,19 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="F231" s="18">
-        <v>38395</v>
+        <v>38000</v>
       </c>
       <c r="G231" s="18">
-        <v>4066740</v>
+        <v>1753920</v>
       </c>
       <c r="H231" s="19"/>
       <c r="I231" s="19"/>
@@ -6282,19 +6282,19 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="F232" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G232" s="18">
-        <v>4066740</v>
+        <v>3000000</v>
       </c>
       <c r="H232" s="19"/>
       <c r="I232" s="19"/>
@@ -6305,19 +6305,19 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="F233" s="18">
-        <v>38395</v>
+        <v>75192</v>
       </c>
       <c r="G233" s="18">
-        <v>4066740</v>
+        <v>1879800</v>
       </c>
       <c r="H233" s="19"/>
       <c r="I233" s="19"/>
@@ -6328,19 +6328,19 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="F234" s="18">
-        <v>38395</v>
+        <v>38000</v>
       </c>
       <c r="G234" s="18">
-        <v>4066740</v>
+        <v>1753920</v>
       </c>
       <c r="H234" s="19"/>
       <c r="I234" s="19"/>
@@ -6351,19 +6351,19 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="F235" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G235" s="18">
-        <v>4066740</v>
+        <v>3000000</v>
       </c>
       <c r="H235" s="19"/>
       <c r="I235" s="19"/>
@@ -6374,19 +6374,19 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="F236" s="18">
-        <v>38395</v>
+        <v>75192</v>
       </c>
       <c r="G236" s="18">
-        <v>4066740</v>
+        <v>1879800</v>
       </c>
       <c r="H236" s="19"/>
       <c r="I236" s="19"/>
@@ -6397,19 +6397,19 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="F237" s="18">
-        <v>38395</v>
+        <v>38000</v>
       </c>
       <c r="G237" s="18">
-        <v>4066740</v>
+        <v>1753920</v>
       </c>
       <c r="H237" s="19"/>
       <c r="I237" s="19"/>
@@ -6420,19 +6420,19 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="F238" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G238" s="18">
-        <v>4066740</v>
+        <v>3000000</v>
       </c>
       <c r="H238" s="19"/>
       <c r="I238" s="19"/>
@@ -6443,19 +6443,19 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="F239" s="18">
-        <v>38395</v>
+        <v>75192</v>
       </c>
       <c r="G239" s="18">
-        <v>4066740</v>
+        <v>1879800</v>
       </c>
       <c r="H239" s="19"/>
       <c r="I239" s="19"/>
@@ -6466,19 +6466,19 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="F240" s="18">
-        <v>38395</v>
+        <v>38000</v>
       </c>
       <c r="G240" s="18">
-        <v>4066740</v>
+        <v>1753920</v>
       </c>
       <c r="H240" s="19"/>
       <c r="I240" s="19"/>
@@ -6489,19 +6489,19 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="F241" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G241" s="18">
-        <v>4066740</v>
+        <v>3000000</v>
       </c>
       <c r="H241" s="19"/>
       <c r="I241" s="19"/>
@@ -6512,19 +6512,19 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="F242" s="18">
-        <v>38395</v>
+        <v>75192</v>
       </c>
       <c r="G242" s="18">
-        <v>4066740</v>
+        <v>1879800</v>
       </c>
       <c r="H242" s="19"/>
       <c r="I242" s="19"/>
@@ -6535,19 +6535,19 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="F243" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G243" s="18">
-        <v>4066740</v>
+        <v>3000000</v>
       </c>
       <c r="H243" s="19"/>
       <c r="I243" s="19"/>
@@ -6558,19 +6558,19 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F244" s="18">
-        <v>38395</v>
+        <v>75192</v>
       </c>
       <c r="G244" s="18">
-        <v>4066740</v>
+        <v>1879800</v>
       </c>
       <c r="H244" s="19"/>
       <c r="I244" s="19"/>
@@ -6581,19 +6581,19 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F245" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G245" s="18">
-        <v>4066740</v>
+        <v>3000000</v>
       </c>
       <c r="H245" s="19"/>
       <c r="I245" s="19"/>
@@ -6604,19 +6604,19 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="F246" s="18">
-        <v>38395</v>
+        <v>75192</v>
       </c>
       <c r="G246" s="18">
-        <v>4066740</v>
+        <v>1879800</v>
       </c>
       <c r="H246" s="19"/>
       <c r="I246" s="19"/>
@@ -6627,19 +6627,19 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="F247" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G247" s="18">
-        <v>4066740</v>
+        <v>3000000</v>
       </c>
       <c r="H247" s="19"/>
       <c r="I247" s="19"/>
@@ -6650,19 +6650,19 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="F248" s="18">
-        <v>38395</v>
+        <v>75192</v>
       </c>
       <c r="G248" s="18">
-        <v>4066740</v>
+        <v>1879800</v>
       </c>
       <c r="H248" s="19"/>
       <c r="I248" s="19"/>
@@ -6673,19 +6673,19 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="F249" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G249" s="18">
-        <v>4066740</v>
+        <v>3000000</v>
       </c>
       <c r="H249" s="19"/>
       <c r="I249" s="19"/>
@@ -6696,19 +6696,19 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="F250" s="18">
-        <v>38395</v>
+        <v>75192</v>
       </c>
       <c r="G250" s="18">
-        <v>4066740</v>
+        <v>1879800</v>
       </c>
       <c r="H250" s="19"/>
       <c r="I250" s="19"/>
@@ -6719,19 +6719,19 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="F251" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G251" s="18">
-        <v>4066740</v>
+        <v>3000000</v>
       </c>
       <c r="H251" s="19"/>
       <c r="I251" s="19"/>
@@ -6742,19 +6742,19 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="F252" s="18">
-        <v>38395</v>
+        <v>75192</v>
       </c>
       <c r="G252" s="18">
-        <v>4066740</v>
+        <v>1879800</v>
       </c>
       <c r="H252" s="19"/>
       <c r="I252" s="19"/>
@@ -6765,19 +6765,19 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="F253" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G253" s="18">
-        <v>4066740</v>
+        <v>3000000</v>
       </c>
       <c r="H253" s="19"/>
       <c r="I253" s="19"/>
@@ -6788,19 +6788,19 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="F254" s="18">
-        <v>38395</v>
+        <v>75192</v>
       </c>
       <c r="G254" s="18">
-        <v>4066740</v>
+        <v>1879800</v>
       </c>
       <c r="H254" s="19"/>
       <c r="I254" s="19"/>
@@ -6811,19 +6811,19 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="F255" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G255" s="18">
-        <v>4066740</v>
+        <v>3000000</v>
       </c>
       <c r="H255" s="19"/>
       <c r="I255" s="19"/>
@@ -6834,19 +6834,19 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="F256" s="18">
-        <v>38395</v>
+        <v>75192</v>
       </c>
       <c r="G256" s="18">
-        <v>4066740</v>
+        <v>1879800</v>
       </c>
       <c r="H256" s="19"/>
       <c r="I256" s="19"/>
@@ -6857,19 +6857,19 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="F257" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G257" s="18">
-        <v>4066740</v>
+        <v>3000000</v>
       </c>
       <c r="H257" s="19"/>
       <c r="I257" s="19"/>
@@ -6880,19 +6880,19 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="F258" s="18">
-        <v>38395</v>
+        <v>75192</v>
       </c>
       <c r="G258" s="18">
-        <v>4066740</v>
+        <v>1879800</v>
       </c>
       <c r="H258" s="19"/>
       <c r="I258" s="19"/>
@@ -6903,19 +6903,19 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="F259" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G259" s="18">
-        <v>4066740</v>
+        <v>3000000</v>
       </c>
       <c r="H259" s="19"/>
       <c r="I259" s="19"/>
@@ -6926,19 +6926,19 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="F260" s="18">
-        <v>38395</v>
+        <v>75192</v>
       </c>
       <c r="G260" s="18">
-        <v>4066740</v>
+        <v>1879800</v>
       </c>
       <c r="H260" s="19"/>
       <c r="I260" s="19"/>
@@ -6949,19 +6949,19 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D261" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E261" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D261" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E261" s="16" t="s">
-        <v>91</v>
-      </c>
       <c r="F261" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G261" s="18">
-        <v>4066740</v>
+        <v>3000000</v>
       </c>
       <c r="H261" s="19"/>
       <c r="I261" s="19"/>
@@ -6972,19 +6972,19 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D262" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E262" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D262" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E262" s="16" t="s">
-        <v>92</v>
-      </c>
       <c r="F262" s="18">
-        <v>38395</v>
+        <v>75192</v>
       </c>
       <c r="G262" s="18">
-        <v>4066740</v>
+        <v>1879800</v>
       </c>
       <c r="H262" s="19"/>
       <c r="I262" s="19"/>
@@ -6995,19 +6995,19 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D263" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E263" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E263" s="16" t="s">
-        <v>93</v>
-      </c>
       <c r="F263" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G263" s="18">
-        <v>4066740</v>
+        <v>3000000</v>
       </c>
       <c r="H263" s="19"/>
       <c r="I263" s="19"/>
@@ -7018,19 +7018,19 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="D264" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E264" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E264" s="16" t="s">
-        <v>94</v>
-      </c>
       <c r="F264" s="18">
-        <v>38395</v>
+        <v>75192</v>
       </c>
       <c r="G264" s="18">
-        <v>4066740</v>
+        <v>1879800</v>
       </c>
       <c r="H264" s="19"/>
       <c r="I264" s="19"/>
@@ -7041,19 +7041,19 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="F265" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G265" s="18">
-        <v>4066740</v>
+        <v>3000000</v>
       </c>
       <c r="H265" s="19"/>
       <c r="I265" s="19"/>
@@ -7064,19 +7064,19 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="F266" s="18">
-        <v>38395</v>
+        <v>75192</v>
       </c>
       <c r="G266" s="18">
-        <v>4066740</v>
+        <v>1879800</v>
       </c>
       <c r="H266" s="19"/>
       <c r="I266" s="19"/>
@@ -7087,19 +7087,19 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="F267" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G267" s="18">
-        <v>4066740</v>
+        <v>3000000</v>
       </c>
       <c r="H267" s="19"/>
       <c r="I267" s="19"/>
@@ -7110,19 +7110,19 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F268" s="18">
-        <v>38395</v>
+        <v>75192</v>
       </c>
       <c r="G268" s="18">
-        <v>4066740</v>
+        <v>1879800</v>
       </c>
       <c r="H268" s="19"/>
       <c r="I268" s="19"/>
@@ -7133,19 +7133,19 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="F269" s="18">
-        <v>38395</v>
+        <v>120000</v>
       </c>
       <c r="G269" s="18">
-        <v>4066740</v>
+        <v>3000000</v>
       </c>
       <c r="H269" s="19"/>
       <c r="I269" s="19"/>
@@ -7156,19 +7156,19 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="F270" s="18">
-        <v>37115</v>
+        <v>75192</v>
       </c>
       <c r="G270" s="18">
-        <v>4066740</v>
+        <v>1879800</v>
       </c>
       <c r="H270" s="19"/>
       <c r="I270" s="19"/>
@@ -7179,19 +7179,19 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="F271" s="18">
-        <v>48135</v>
+        <v>76000</v>
       </c>
       <c r="G271" s="18">
-        <v>2406750</v>
+        <v>3000000</v>
       </c>
       <c r="H271" s="19"/>
       <c r="I271" s="19"/>
@@ -7202,19 +7202,19 @@
         <v>8</v>
       </c>
       <c r="C272" s="22" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="D272" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E272" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E272" s="22" t="s">
-        <v>24</v>
-      </c>
       <c r="F272" s="24">
-        <v>3653</v>
+        <v>47622</v>
       </c>
       <c r="G272" s="24">
-        <v>1370000</v>
+        <v>1879800</v>
       </c>
       <c r="H272" s="25"/>
       <c r="I272" s="25"/>
